--- a/data/trans_orig/IP07A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C46B42-CB35-4884-BB69-D34160928128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB945BFD-4F6D-47ED-9FE6-9C5A3A165D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{216C8932-733C-45DA-A3D4-31694C14943A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{36F780B4-8E4B-4242-9FA6-17F6ABD9BA2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,217 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>5,17%</t>
@@ -100,27 +307,6 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>40,54%</t>
   </si>
   <si>
@@ -148,24 +334,6 @@
     <t>44,64%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>54,29%</t>
   </si>
   <si>
@@ -193,111 +361,150 @@
     <t>61,54%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>4,66%</t>
   </si>
   <si>
@@ -322,27 +529,6 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
     <t>38,72%</t>
   </si>
   <si>
@@ -367,24 +553,6 @@
     <t>34,69%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
     <t>55,11%</t>
   </si>
   <si>
@@ -412,172 +580,43 @@
     <t>60,01%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>4,77%</t>
@@ -604,30 +643,6 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>40,41%</t>
   </si>
   <si>
@@ -655,21 +670,6 @@
     <t>43,95%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>54,16%</t>
   </si>
   <si>
@@ -700,6 +700,183 @@
     <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>2,7%</t>
   </si>
   <si>
@@ -724,18 +901,6 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>36,33%</t>
   </si>
   <si>
@@ -760,12 +925,6 @@
     <t>42,82%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>52,75%</t>
   </si>
   <si>
@@ -790,91 +949,133 @@
     <t>65,22%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>4,84%</t>
@@ -898,24 +1099,6 @@
     <t>5,41%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
     <t>37,97%</t>
   </si>
   <si>
@@ -943,18 +1126,6 @@
     <t>46,63%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>54,98%</t>
   </si>
   <si>
@@ -979,175 +1150,34 @@
     <t>49,03%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>3,67%</t>
@@ -1174,27 +1204,6 @@
     <t>4,27%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>38,27%</t>
   </si>
   <si>
@@ -1222,15 +1231,6 @@
     <t>41,22%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>56,68%</t>
   </si>
   <si>
@@ -1258,6 +1258,186 @@
     <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>3,69%</t>
   </si>
   <si>
@@ -1282,18 +1462,6 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>43,23%</t>
   </si>
   <si>
@@ -1321,21 +1489,6 @@
     <t>46,6%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
     <t>51,75%</t>
   </si>
   <si>
@@ -1360,79 +1513,103 @@
     <t>56,42%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>2,03%</t>
@@ -1447,12 +1624,6 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>45,39%</t>
   </si>
   <si>
@@ -1507,175 +1678,25 @@
     <t>55,08%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>5,13%</t>
@@ -1693,18 +1714,6 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>40,49%</t>
   </si>
   <si>
@@ -1727,15 +1736,6 @@
   </si>
   <si>
     <t>44,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
   </si>
   <si>
     <t>55,67%</t>
@@ -2154,7 +2154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA83E629-E6D7-491A-8AB9-02C0A3822D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED628AF-401D-4154-B9B3-80B35B88BDED}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2272,10 +2272,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5129</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2287,40 +2287,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3934</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9063</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2344,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2359,166 +2359,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>40228</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>40400</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>80628</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3082</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8091</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>647</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>647</v>
+        <v>11174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>53878</v>
+        <v>10734</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>59012</v>
+        <v>6946</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="N8" s="7">
-        <v>112890</v>
+        <v>17679</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,108 +2527,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203228</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4091</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>4678</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2637,13 +2637,13 @@
         <v>802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2652,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2667,121 +2667,121 @@
         <v>802</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>30088</v>
+        <v>4091</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>21644</v>
+        <v>587</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>51732</v>
+        <v>4678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>30088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="7">
+        <v>77</v>
+      </c>
+      <c r="N13" s="7">
+        <v>51732</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>50</v>
@@ -2790,13 +2790,13 @@
         <v>32019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -2805,13 +2805,13 @@
         <v>26748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -2820,13 +2820,13 @@
         <v>58767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2841,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2856,13 +2856,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -2871,270 +2871,270 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4629</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4273</v>
+        <v>647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>8902</v>
+        <v>647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>2175</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>38427</v>
+        <v>5129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>39027</v>
+        <v>3934</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>77453</v>
+        <v>9063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>40228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>733</v>
+        <v>40400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="N19" s="7">
-        <v>733</v>
+        <v>80628</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>54694</v>
+        <v>53878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I20" s="7">
-        <v>47209</v>
+        <v>59012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="N20" s="7">
-        <v>101903</v>
+        <v>112890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,54 +3143,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>99242</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>91926</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>191167</v>
+        <v>203228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3202,49 +3202,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3283,166 +3283,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>3082</v>
+        <v>2636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>8091</v>
+        <v>4319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>11174</v>
+        <v>6955</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>27831</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>24091</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>51922</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D26" s="7">
-        <v>10734</v>
+        <v>35828</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="7">
+        <v>52</v>
+      </c>
+      <c r="I26" s="7">
+        <v>31964</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>108</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67791</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6946</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="M26" s="7">
-        <v>23</v>
-      </c>
-      <c r="N26" s="7">
-        <v>17679</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,267 +3451,267 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>127351</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>2636</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>733</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>733</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="7">
-        <v>7</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4319</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" s="7">
-        <v>11</v>
-      </c>
-      <c r="N28" s="7">
-        <v>6955</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>27831</v>
+        <v>4629</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4273</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="7">
-        <v>40</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24091</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>8902</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M30" s="7">
-        <v>84</v>
-      </c>
-      <c r="N30" s="7">
-        <v>51922</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>38427</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I31" s="7">
-        <v>683</v>
+        <v>39027</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>168</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="N31" s="7">
-        <v>683</v>
+        <v>77453</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>169</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7">
-        <v>35828</v>
+        <v>54694</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>171</v>
@@ -3723,10 +3723,10 @@
         <v>173</v>
       </c>
       <c r="H32" s="7">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I32" s="7">
-        <v>31964</v>
+        <v>47209</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>174</v>
@@ -3738,10 +3738,10 @@
         <v>176</v>
       </c>
       <c r="M32" s="7">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="N32" s="7">
-        <v>67791</v>
+        <v>101903</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>177</v>
@@ -3759,49 +3759,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>99242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>91926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="N33" s="7">
-        <v>127351</v>
+        <v>191167</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,55 +3812,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>16486</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2063</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="7">
-        <v>20</v>
-      </c>
-      <c r="I34" s="7">
-        <v>13113</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2063</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M34" s="7">
-        <v>45</v>
-      </c>
-      <c r="N34" s="7">
-        <v>29599</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -3869,13 +3869,13 @@
         <v>2293</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3884,13 +3884,13 @@
         <v>683</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -3899,112 +3899,112 @@
         <v>2977</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D36" s="7">
-        <v>139655</v>
+        <v>16486</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="7">
+        <v>20</v>
+      </c>
+      <c r="I36" s="7">
+        <v>13113</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H36" s="7">
-        <v>198</v>
-      </c>
-      <c r="I36" s="7">
-        <v>133254</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>45</v>
+      </c>
+      <c r="N36" s="7">
+        <v>29599</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" s="7">
-        <v>407</v>
-      </c>
-      <c r="N36" s="7">
-        <v>272909</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>139655</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="7">
+        <v>198</v>
+      </c>
+      <c r="I37" s="7">
+        <v>133254</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2063</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>407</v>
+      </c>
+      <c r="N37" s="7">
+        <v>272909</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M37" s="7">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2063</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>209</v>
@@ -4013,7 +4013,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>282</v>
@@ -4073,13 +4073,13 @@
         <v>345587</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -4088,13 +4088,13 @@
         <v>320991</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>995</v>
@@ -4103,13 +4103,13 @@
         <v>666578</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709E667-2C9A-498A-AE15-A0B74BDFFAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EAD880-8084-4BC0-B626-86B3E3DDA2F7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4248,70 +4248,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2629</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3319</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5948</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4320,181 +4320,181 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>42671</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H6" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>29495</v>
+        <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="M6" s="7">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>72166</v>
+        <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>8545</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>12796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>51265</v>
+        <v>5945</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6767</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="7">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7">
+        <v>12712</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="H8" s="7">
-        <v>99</v>
-      </c>
-      <c r="I8" s="7">
-        <v>65659</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M8" s="7">
-        <v>176</v>
-      </c>
-      <c r="N8" s="7">
-        <v>116924</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,108 +4503,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98473</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>195663</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2152</v>
+        <v>687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>3728</v>
+        <v>687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4628,13 +4628,13 @@
         <v>697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4643,121 +4643,121 @@
         <v>697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>20294</v>
+        <v>2152</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>21536</v>
+        <v>1576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>41830</v>
+        <v>3728</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>687</v>
+        <v>20294</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>687</v>
+        <v>41830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>51</v>
@@ -4766,13 +4766,13 @@
         <v>35040</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4781,13 +4781,13 @@
         <v>29874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -4796,13 +4796,13 @@
         <v>64914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4817,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -4832,13 +4832,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -4847,270 +4847,270 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4504</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>5272</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1315</v>
+        <v>625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>2901</v>
+        <v>625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>35361</v>
+        <v>2629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>39149</v>
+        <v>3319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>74510</v>
+        <v>5948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7">
-        <v>744</v>
+        <v>42671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>29495</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="N19" s="7">
-        <v>744</v>
+        <v>72166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
-        <v>51205</v>
+        <v>51265</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>49824</v>
+        <v>65659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="N20" s="7">
-        <v>101029</v>
+        <v>116924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,123 +5119,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>93130</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98473</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="N21" s="7">
-        <v>184457</v>
+        <v>195663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>925</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>925</v>
+        <v>1263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5244,181 +5244,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>8545</v>
+        <v>2922</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>4250</v>
+        <v>1291</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>12796</v>
+        <v>4213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>20392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>26523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>55</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>46915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7">
-        <v>5945</v>
+        <v>45023</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>58</v>
+      </c>
+      <c r="I26" s="7">
+        <v>38054</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6767</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>128</v>
+      </c>
+      <c r="N26" s="7">
+        <v>83077</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="M26" s="7">
-        <v>15</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12712</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,306 +5427,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2922</v>
+        <v>744</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>744</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1291</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4213</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>580</v>
+        <v>1315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1586</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2901</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>580</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>20392</v>
+        <v>4504</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>768</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H30" s="7">
-        <v>41</v>
-      </c>
-      <c r="I30" s="7">
-        <v>26523</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>7</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5272</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="M30" s="7">
-        <v>74</v>
-      </c>
-      <c r="N30" s="7">
-        <v>46915</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D31" s="7">
-        <v>607</v>
+        <v>35361</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H31" s="7">
+        <v>49</v>
+      </c>
+      <c r="I31" s="7">
+        <v>39149</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>656</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>97</v>
+      </c>
+      <c r="N31" s="7">
+        <v>74510</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1263</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7">
-        <v>45023</v>
+        <v>51205</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H32" s="7">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I32" s="7">
-        <v>38054</v>
+        <v>49824</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M32" s="7">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N32" s="7">
-        <v>83077</v>
+        <v>101029</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>369</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,49 +5735,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,55 +5788,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>12207</v>
+        <v>2039</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>656</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H34" s="7">
-        <v>11</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7880</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="M34" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>20087</v>
+        <v>2695</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
@@ -5845,13 +5845,13 @@
         <v>2520</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -5860,13 +5860,13 @@
         <v>2283</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -5875,112 +5875,112 @@
         <v>4803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D36" s="7">
-        <v>127265</v>
+        <v>12207</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H36" s="7">
+        <v>11</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7880</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M36" s="7">
+        <v>29</v>
+      </c>
+      <c r="N36" s="7">
+        <v>20087</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="H36" s="7">
-        <v>170</v>
-      </c>
-      <c r="I36" s="7">
-        <v>120953</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M36" s="7">
-        <v>353</v>
-      </c>
-      <c r="N36" s="7">
-        <v>248217</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="D37" s="7">
-        <v>2039</v>
+        <v>127265</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H37" s="7">
+        <v>170</v>
+      </c>
+      <c r="I37" s="7">
+        <v>120953</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M37" s="7">
+        <v>353</v>
+      </c>
+      <c r="N37" s="7">
+        <v>248217</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>656</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2695</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>396</v>
@@ -5989,7 +5989,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>276</v>
@@ -6016,7 +6016,7 @@
         <v>400</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>401</v>
@@ -6049,13 +6049,13 @@
         <v>332508</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>457</v>
@@ -6064,13 +6064,13 @@
         <v>321950</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>941</v>
@@ -6079,13 +6079,13 @@
         <v>654458</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6106,7 +6106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CB99C-658F-4EF9-B5F7-2FD679D3CDC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B74B5C-7CF7-40E3-BE83-271DBA92CB8D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6224,253 +6224,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3974</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8509</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12483</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>46535</v>
+        <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>42064</v>
+        <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>422</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>88599</v>
+        <v>1824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>717</v>
+        <v>4824</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>416</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>1421</v>
+        <v>6029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>419</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>2139</v>
+        <v>10854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>55705</v>
+        <v>8681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>53643</v>
+        <v>6881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M8" s="7">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>109348</v>
+        <v>15562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>437</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,108 +6479,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>107649</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>214278</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1453</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>441</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>3293</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6589,13 +6589,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6604,13 +6604,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6619,112 +6619,112 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>23560</v>
+        <v>1453</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H12" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>24770</v>
+        <v>1840</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="M12" s="7">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>48330</v>
+        <v>3293</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23560</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H13" s="7">
         <v>36</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>24770</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="7">
+        <v>66</v>
+      </c>
+      <c r="N13" s="7">
+        <v>48330</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>448</v>
@@ -6733,7 +6733,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>45</v>
@@ -6742,13 +6742,13 @@
         <v>34299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6757,13 +6757,13 @@
         <v>30305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -6772,13 +6772,13 @@
         <v>64605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6793,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -6808,13 +6808,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -6823,270 +6823,270 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>717</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1421</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>2070</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3306</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
       <c r="N16" s="7">
-        <v>5375</v>
+        <v>2139</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>46365</v>
+        <v>3974</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H18" s="7">
+        <v>14</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8509</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M18" s="7">
+        <v>20</v>
+      </c>
+      <c r="N18" s="7">
+        <v>12483</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="H18" s="7">
-        <v>72</v>
-      </c>
-      <c r="I18" s="7">
-        <v>54896</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="M18" s="7">
-        <v>136</v>
-      </c>
-      <c r="N18" s="7">
-        <v>101261</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>46535</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>42064</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>88599</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>63</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>53708</v>
+        <v>55705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>49390</v>
+        <v>53643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="N20" s="7">
-        <v>103098</v>
+        <v>109348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,54 +7095,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>102142</v>
+        <v>107649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="N21" s="7">
-        <v>209734</v>
+        <v>214278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7151,52 +7151,52 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>809</v>
+        <v>653</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1016</v>
+        <v>706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1824</v>
+        <v>1359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -7205,13 +7205,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>342</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7220,13 +7220,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7235,166 +7235,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3491</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1845</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M24" s="7">
         <v>7</v>
       </c>
-      <c r="D24" s="7">
-        <v>4824</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6029</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="N24" s="7">
+        <v>5336</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="M24" s="7">
-        <v>13</v>
-      </c>
-      <c r="N24" s="7">
-        <v>10854</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>25015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>18961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>43977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>8681</v>
+        <v>48784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="I26" s="7">
-        <v>6881</v>
+        <v>50198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="N26" s="7">
-        <v>15562</v>
+        <v>98982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,108 +7403,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3491</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>516</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1845</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>519</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>5336</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>521</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>522</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>523</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -7513,13 +7513,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>288</v>
+        <v>522</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7528,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>59</v>
+        <v>523</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7543,112 +7543,112 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>356</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>25015</v>
+        <v>2070</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>524</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>524</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>525</v>
       </c>
       <c r="H30" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>18961</v>
+        <v>3306</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>528</v>
-      </c>
       <c r="M30" s="7">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="N30" s="7">
-        <v>43977</v>
+        <v>5375</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>529</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>530</v>
+        <v>316</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>531</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7">
-        <v>653</v>
+        <v>46365</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>282</v>
+        <v>528</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H31" s="7">
+        <v>72</v>
+      </c>
+      <c r="I31" s="7">
+        <v>54896</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>706</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>136</v>
+      </c>
+      <c r="N31" s="7">
+        <v>101261</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1359</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>536</v>
@@ -7657,13 +7657,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7">
-        <v>48784</v>
+        <v>53708</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>537</v>
@@ -7675,10 +7675,10 @@
         <v>539</v>
       </c>
       <c r="H32" s="7">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I32" s="7">
-        <v>50198</v>
+        <v>49390</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>540</v>
@@ -7690,10 +7690,10 @@
         <v>542</v>
       </c>
       <c r="M32" s="7">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="N32" s="7">
-        <v>98982</v>
+        <v>103098</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>543</v>
@@ -7711,49 +7711,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>102142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209734</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,55 +7764,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>11796</v>
+        <v>1370</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>546</v>
       </c>
       <c r="H34" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>16515</v>
+        <v>2128</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>547</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3498</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="M34" s="7">
-        <v>41</v>
-      </c>
-      <c r="N34" s="7">
-        <v>28311</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>54</v>
+        <v>374</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>550</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -7821,13 +7821,13 @@
         <v>717</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7836,13 +7836,13 @@
         <v>993</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -7851,121 +7851,121 @@
         <v>1710</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="D36" s="7">
-        <v>146300</v>
+        <v>11796</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H36" s="7">
+        <v>25</v>
+      </c>
+      <c r="I36" s="7">
+        <v>16515</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>41</v>
+      </c>
+      <c r="N36" s="7">
+        <v>28311</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="H36" s="7">
-        <v>208</v>
-      </c>
-      <c r="I36" s="7">
-        <v>146720</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="M36" s="7">
-        <v>412</v>
-      </c>
-      <c r="N36" s="7">
-        <v>293020</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="D37" s="7">
-        <v>1370</v>
+        <v>146300</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>113</v>
+        <v>558</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H37" s="7">
+        <v>208</v>
+      </c>
+      <c r="I37" s="7">
+        <v>146720</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M37" s="7">
+        <v>412</v>
+      </c>
+      <c r="N37" s="7">
+        <v>293020</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2128</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="7">
-        <v>5</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3498</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>273</v>
@@ -8025,13 +8025,13 @@
         <v>361361</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>510</v>
@@ -8040,13 +8040,13 @@
         <v>356772</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>1006</v>
@@ -8055,13 +8055,13 @@
         <v>718133</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB945BFD-4F6D-47ED-9FE6-9C5A3A165D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7FB8FC-F3F8-4A2E-A4E9-F41FCA6190FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{36F780B4-8E4B-4242-9FA6-17F6ABD9BA2B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1EFB34C-DB2B-49D2-B5A9-543CE14810FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="582">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -70,1699 +70,1720 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1794,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1869,39 +1890,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1953,7 +1974,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2064,13 +2085,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2079,6 +2093,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2143,19 +2164,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED628AF-401D-4154-B9B3-80B35B88BDED}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03F5C8-75FB-41C4-AF86-44335B8B8F83}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2272,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10734</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2287,91 +2328,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6946</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>17679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>8091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>14</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>11174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2380,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2395,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2410,115 +2451,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3082</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>8091</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>11174</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10734</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6946</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>17679</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,106 +2621,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>32019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7">
         <v>40</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>26748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>58767</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>802</v>
+        <v>30088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>21644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7">
-        <v>802</v>
+        <v>51732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -2688,13 +2729,13 @@
         <v>4091</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2703,13 +2744,13 @@
         <v>587</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2718,115 +2759,115 @@
         <v>4678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>30088</v>
+        <v>802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="7">
-        <v>21644</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>51732</v>
+        <v>802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>32019</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>26748</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>58767</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,112 +2923,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>53878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>647</v>
+        <v>59012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>647</v>
+        <v>112890</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>40228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>40400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>80628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -2996,13 +3037,13 @@
         <v>5129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3011,13 +3052,13 @@
         <v>3934</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -3026,115 +3067,115 @@
         <v>9063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>40228</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>40400</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>80628</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>53878</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="H20" s="7">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>59012</v>
+        <v>647</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>647</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M20" s="7">
-        <v>174</v>
-      </c>
-      <c r="N20" s="7">
-        <v>112890</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,112 +3231,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>35828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>683</v>
+        <v>31964</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="N22" s="7">
-        <v>683</v>
+        <v>67791</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>27831</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>24091</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>51922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -3304,13 +3345,13 @@
         <v>2636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -3319,13 +3360,13 @@
         <v>4319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3334,115 +3375,115 @@
         <v>6955</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>27831</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>24091</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>51922</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>35828</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="H26" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>31964</v>
+        <v>683</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>683</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="7">
-        <v>108</v>
-      </c>
-      <c r="N26" s="7">
-        <v>67791</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,112 +3539,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>54694</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I28" s="7">
-        <v>733</v>
+        <v>47209</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="N28" s="7">
-        <v>733</v>
+        <v>101903</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>1492</v>
+        <v>38427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>683</v>
+        <v>39027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="N29" s="7">
-        <v>2175</v>
+        <v>77453</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -3612,13 +3653,13 @@
         <v>4629</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3627,13 +3668,13 @@
         <v>4273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3642,55 +3683,55 @@
         <v>8902</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>38427</v>
+        <v>1492</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>39027</v>
+        <v>683</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>168</v>
       </c>
       <c r="M31" s="7">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>77453</v>
+        <v>2175</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>169</v>
@@ -3699,58 +3740,58 @@
         <v>170</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>54694</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>733</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H32" s="7">
-        <v>61</v>
-      </c>
-      <c r="I32" s="7">
-        <v>47209</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>733</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M32" s="7">
-        <v>141</v>
-      </c>
-      <c r="N32" s="7">
-        <v>101903</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,106 +3853,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>187153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="7">
+        <v>254</v>
+      </c>
+      <c r="I34" s="7">
+        <v>171878</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H34" s="7">
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>2063</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>536</v>
+      </c>
+      <c r="N34" s="7">
+        <v>359031</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M34" s="7">
-        <v>3</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2063</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="D35" s="7">
-        <v>2293</v>
+        <v>139655</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="I35" s="7">
-        <v>683</v>
+        <v>133254</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="N35" s="7">
-        <v>2977</v>
+        <v>272909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>25</v>
@@ -3920,13 +3961,13 @@
         <v>16486</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -3935,13 +3976,13 @@
         <v>13113</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -3950,115 +3991,115 @@
         <v>29599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2293</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>683</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="7">
+        <v>4</v>
+      </c>
+      <c r="N37" s="7">
+        <v>2977</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="7">
-        <v>139655</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H37" s="7">
-        <v>198</v>
-      </c>
-      <c r="I37" s="7">
-        <v>133254</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M37" s="7">
-        <v>407</v>
-      </c>
-      <c r="N37" s="7">
-        <v>272909</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>187153</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>212</v>
       </c>
       <c r="H38" s="7">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>171878</v>
+        <v>2063</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>213</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2063</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M38" s="7">
-        <v>536</v>
-      </c>
-      <c r="N38" s="7">
-        <v>359031</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,6 +4151,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4130,8 +4176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EAD880-8084-4BC0-B626-86B3E3DDA2F7}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E709DF6-E1CF-4A26-B491-0476D0E5145D}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4147,7 +4193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4248,106 +4294,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6767</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>8545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4356,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4371,13 +4417,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4386,115 +4432,115 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>8545</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>12796</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5945</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6767</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>12712</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,106 +4602,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>687</v>
+        <v>35040</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>29874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>687</v>
+        <v>64914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>20294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>697</v>
+        <v>21536</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" s="7">
+        <v>60</v>
+      </c>
+      <c r="N11" s="7">
+        <v>41830</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>697</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -4664,13 +4710,13 @@
         <v>2152</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4679,13 +4725,13 @@
         <v>1576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4694,115 +4740,115 @@
         <v>3728</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>20294</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>21536</v>
+        <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>41830</v>
+        <v>697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>35040</v>
+        <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>29874</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>64914</v>
+        <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,112 +4904,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>51265</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>65659</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>116924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>625</v>
+        <v>42671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>29495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="N17" s="7">
-        <v>625</v>
+        <v>72166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>4</v>
@@ -4972,13 +5018,13 @@
         <v>2629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -4987,13 +5033,13 @@
         <v>3319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5002,115 +5048,115 @@
         <v>5948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>42671</v>
+        <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>29495</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>72166</v>
+        <v>625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>51265</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>65659</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>116924</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,112 +5212,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>607</v>
+        <v>45023</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>58</v>
+      </c>
+      <c r="I22" s="7">
+        <v>38054</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>656</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>306</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="N22" s="7">
-        <v>1263</v>
+        <v>83077</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>580</v>
+        <v>20392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>26523</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="N23" s="7">
-        <v>580</v>
+        <v>46915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -5280,13 +5326,13 @@
         <v>2922</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5295,13 +5341,13 @@
         <v>1291</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5310,115 +5356,115 @@
         <v>4213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>20392</v>
+        <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>26523</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>69</v>
       </c>
       <c r="M25" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>46915</v>
+        <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>45023</v>
+        <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>38054</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>83077</v>
+        <v>1263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,112 +5520,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>744</v>
+        <v>51205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>337</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>49824</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="N28" s="7">
-        <v>744</v>
+        <v>101029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7">
-        <v>1315</v>
+        <v>35361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I29" s="7">
-        <v>1586</v>
+        <v>39149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>50</v>
+        <v>349</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="N29" s="7">
-        <v>2901</v>
+        <v>74510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -5588,13 +5634,13 @@
         <v>4504</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -5603,13 +5649,13 @@
         <v>768</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -5618,115 +5664,115 @@
         <v>5272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>48</v>
+        <v>357</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>351</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>35361</v>
+        <v>1315</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H31" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>39149</v>
+        <v>1586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M31" s="7">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>74510</v>
+        <v>2901</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>51205</v>
+        <v>744</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H32" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>49824</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>366</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>744</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="M32" s="7">
-        <v>136</v>
-      </c>
-      <c r="N32" s="7">
-        <v>101029</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,106 +5834,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="D34" s="7">
-        <v>2039</v>
+        <v>188478</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>370</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="7">
+        <v>272</v>
+      </c>
+      <c r="I34" s="7">
+        <v>190178</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="7">
-        <v>656</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>548</v>
       </c>
       <c r="N34" s="7">
-        <v>2695</v>
+        <v>378656</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>185</v>
+        <v>375</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="D35" s="7">
-        <v>2520</v>
+        <v>127265</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="I35" s="7">
-        <v>2283</v>
+        <v>120953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="M35" s="7">
-        <v>7</v>
+        <v>353</v>
       </c>
       <c r="N35" s="7">
-        <v>4803</v>
+        <v>248217</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>18</v>
@@ -5896,13 +5942,13 @@
         <v>12207</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -5911,13 +5957,13 @@
         <v>7880</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>275</v>
+        <v>390</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -5926,115 +5972,115 @@
         <v>20087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>127265</v>
+        <v>2520</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H37" s="7">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>120953</v>
+        <v>2283</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M37" s="7">
-        <v>353</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>248217</v>
+        <v>4803</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>188478</v>
+        <v>2039</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H38" s="7">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>190178</v>
+        <v>656</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>400</v>
+        <v>205</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
-        <v>548</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>378656</v>
+        <v>2695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,6 +6132,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6106,8 +6157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B74B5C-7CF7-40E3-BE83-271DBA92CB8D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE319E50-CD8B-4098-BF2B-6A9E06201B59}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6123,7 +6174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6224,106 +6275,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>409</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>410</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>15562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6029</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10854</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6332,13 +6383,13 @@
         <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6347,13 +6398,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6362,115 +6413,115 @@
         <v>1824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4824</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>415</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>416</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>6029</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>418</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>10854</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>421</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>422</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8681</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>424</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>425</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6881</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>427</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>428</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>15562</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,106 +6583,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>34299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>30305</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>64605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>23560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>24770</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>48330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -6640,13 +6691,13 @@
         <v>1453</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6655,13 +6706,13 @@
         <v>1840</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -6670,115 +6721,115 @@
         <v>3293</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>439</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>23560</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>441</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>24770</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>444</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>458</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>48330</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>34299</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>30305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>64605</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,112 +6885,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>717</v>
+        <v>55705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7">
-        <v>1421</v>
+        <v>53643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="N16" s="7">
-        <v>2139</v>
+        <v>109348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>717</v>
+        <v>46535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>993</v>
+        <v>42064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="N17" s="7">
-        <v>1710</v>
+        <v>88599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -6948,13 +6999,13 @@
         <v>3974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6963,13 +7014,13 @@
         <v>8509</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -6978,115 +7029,115 @@
         <v>12483</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>46535</v>
+        <v>717</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>42064</v>
+        <v>993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="M19" s="7">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>88599</v>
+        <v>1710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>55705</v>
+        <v>717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>53643</v>
+        <v>1421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>109348</v>
+        <v>2139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,112 +7193,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>653</v>
+        <v>48784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>496</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I22" s="7">
-        <v>706</v>
+        <v>50198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="N22" s="7">
-        <v>1359</v>
+        <v>98982</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>25015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>504</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>505</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>342</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>18961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>52</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>43977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>511</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -7256,13 +7307,13 @@
         <v>3491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7271,13 +7322,13 @@
         <v>1845</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>96</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -7286,115 +7337,115 @@
         <v>5336</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>25015</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>18961</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>43977</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>48784</v>
+        <v>653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>50198</v>
+        <v>706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>98982</v>
+        <v>1359</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,112 +7501,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>53708</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>525</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>526</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>49390</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>529</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>103098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>532</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>46365</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>534</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>535</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>54896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>101261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>541</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>3</v>
@@ -7564,13 +7615,13 @@
         <v>2070</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7579,13 +7630,13 @@
         <v>3306</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -7594,115 +7645,115 @@
         <v>5375</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>316</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>46365</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>528</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>529</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="H31" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>54896</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>532</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>533</v>
+        <v>390</v>
       </c>
       <c r="M31" s="7">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>101261</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>536</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>53708</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>537</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>538</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H32" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>49390</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>540</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>541</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>542</v>
+        <v>390</v>
       </c>
       <c r="M32" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>103098</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>543</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>544</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>545</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,106 +7815,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>273</v>
       </c>
       <c r="D34" s="7">
-        <v>1370</v>
+        <v>201178</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H34" s="7">
+        <v>273</v>
+      </c>
+      <c r="I34" s="7">
+        <v>190417</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M34" s="7">
         <v>546</v>
       </c>
-      <c r="H34" s="7">
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>2128</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="7">
-        <v>5</v>
-      </c>
       <c r="N34" s="7">
-        <v>3498</v>
+        <v>391594</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>374</v>
+        <v>556</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="D35" s="7">
-        <v>717</v>
+        <v>146300</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>182</v>
+        <v>558</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>559</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>305</v>
+        <v>560</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="I35" s="7">
-        <v>993</v>
+        <v>146720</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>562</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="N35" s="7">
-        <v>1710</v>
+        <v>293020</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>565</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>16</v>
@@ -7872,13 +7923,13 @@
         <v>11796</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>194</v>
+        <v>567</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>156</v>
+        <v>568</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -7887,13 +7938,13 @@
         <v>16515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="M36" s="7">
         <v>41</v>
@@ -7902,115 +7953,115 @@
         <v>28311</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>48</v>
+        <v>573</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>146300</v>
+        <v>717</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>558</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>559</v>
+        <v>459</v>
       </c>
       <c r="H37" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>146720</v>
+        <v>993</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>561</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>293020</v>
+        <v>1710</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>564</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>201178</v>
+        <v>1370</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>566</v>
+        <v>175</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>567</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>568</v>
+        <v>169</v>
       </c>
       <c r="H38" s="7">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>190417</v>
+        <v>2128</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>570</v>
+        <v>396</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="M38" s="7">
-        <v>546</v>
+        <v>5</v>
       </c>
       <c r="N38" s="7">
-        <v>391594</v>
+        <v>3498</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>573</v>
+        <v>396</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,6 +8113,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7FB8FC-F3F8-4A2E-A4E9-F41FCA6190FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{372E42D9-5B51-4663-9E24-46C2A4CEF0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1EFB34C-DB2B-49D2-B5A9-543CE14810FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D1A4730-0AEC-44B1-A50B-AB190B0C8F01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="574">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,166 +76,169 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
   </si>
   <si>
     <t>44,6%</t>
   </si>
   <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>6,6%</t>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>2,59%</t>
@@ -244,7 +247,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,86%</t>
@@ -253,25 +256,25 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>54,29%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
   </si>
   <si>
     <t>56,75%</t>
   </si>
   <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>55,55%</t>
@@ -280,61 +283,61 @@
     <t>50,13%</t>
   </si>
   <si>
-    <t>61,14%</t>
+    <t>61,15%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>8,18%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -346,7 +349,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -355,1435 +358,1408 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>52,35%</t>
   </si>
   <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>53,23%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>41,98%</t>
   </si>
   <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
     <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03F5C8-75FB-41C4-AF86-44335B8B8F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A320E-27BF-4034-BF02-E03C5035A609}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2693,13 +2669,13 @@
         <v>21644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -2708,13 +2684,13 @@
         <v>51732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2705,13 @@
         <v>4091</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2744,13 +2720,13 @@
         <v>587</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2759,13 +2735,13 @@
         <v>4678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2756,13 @@
         <v>802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2801,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2810,13 +2786,13 @@
         <v>802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2813,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2852,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2867,7 +2843,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,7 +2899,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2935,13 +2911,13 @@
         <v>53878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -2950,13 +2926,13 @@
         <v>59012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -2965,13 +2941,13 @@
         <v>112890</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2962,13 @@
         <v>40228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -3001,13 +2977,13 @@
         <v>40400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3016,13 +2992,13 @@
         <v>80628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3013,13 @@
         <v>5129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3052,13 +3028,13 @@
         <v>3934</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -3067,13 +3043,13 @@
         <v>9063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3070,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3109,7 +3085,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3124,7 +3100,7 @@
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3121,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3154,13 +3130,13 @@
         <v>647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3169,13 +3145,13 @@
         <v>647</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,7 +3207,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3243,13 +3219,13 @@
         <v>35828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -3258,13 +3234,13 @@
         <v>31964</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -3273,13 +3249,13 @@
         <v>67791</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3270,13 @@
         <v>27831</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3309,13 +3285,13 @@
         <v>24091</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>84</v>
@@ -3324,13 +3300,13 @@
         <v>51922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3321,13 @@
         <v>2636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -3360,13 +3336,13 @@
         <v>4319</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3375,13 +3351,13 @@
         <v>6955</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3417,7 +3393,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3432,7 +3408,7 @@
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3462,13 +3438,13 @@
         <v>683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3477,13 +3453,13 @@
         <v>683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3515,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3551,13 +3527,13 @@
         <v>54694</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -3566,13 +3542,13 @@
         <v>47209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>141</v>
@@ -3581,13 +3557,13 @@
         <v>101903</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3578,13 @@
         <v>38427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -3617,13 +3593,13 @@
         <v>39027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -3632,13 +3608,13 @@
         <v>77453</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3629,13 @@
         <v>4629</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3668,13 +3644,13 @@
         <v>4273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3683,13 +3659,13 @@
         <v>8902</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3680,13 @@
         <v>1492</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3719,13 +3695,13 @@
         <v>683</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -3734,13 +3710,13 @@
         <v>2175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3737,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3770,13 +3746,13 @@
         <v>733</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3785,13 +3761,13 @@
         <v>733</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3835,13 @@
         <v>187153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>254</v>
@@ -3874,13 +3850,13 @@
         <v>171878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>536</v>
@@ -3889,13 +3865,13 @@
         <v>359031</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3886,13 @@
         <v>139655</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H35" s="7">
         <v>198</v>
@@ -3925,13 +3901,13 @@
         <v>133254</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>407</v>
@@ -3940,13 +3916,13 @@
         <v>272909</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3937,13 @@
         <v>16486</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -3976,13 +3952,13 @@
         <v>13113</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -3991,13 +3967,13 @@
         <v>29599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +3988,13 @@
         <v>2293</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4027,13 +4003,13 @@
         <v>683</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -4042,13 +4018,13 @@
         <v>2977</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4045,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -4078,13 +4054,13 @@
         <v>2063</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4093,13 +4069,13 @@
         <v>2063</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,7 +4131,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E709DF6-E1CF-4A26-B491-0476D0E5145D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE757BCA-C5E1-45AC-BBE2-503F921CE2C1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4193,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4300,13 +4276,13 @@
         <v>5945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4315,13 +4291,13 @@
         <v>6767</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4330,13 +4306,13 @@
         <v>12712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4327,13 @@
         <v>8545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4366,13 +4342,13 @@
         <v>4250</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4381,13 +4357,13 @@
         <v>12796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,7 +4384,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4417,13 +4393,13 @@
         <v>925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4432,13 +4408,13 @@
         <v>925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,7 +4435,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4474,7 +4450,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4489,7 +4465,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,7 +4486,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4525,7 +4501,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4540,7 +4516,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4584,13 @@
         <v>35040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4623,13 +4599,13 @@
         <v>29874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4638,13 +4614,13 @@
         <v>64914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4635,13 @@
         <v>20294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -4674,13 +4650,13 @@
         <v>21536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -4689,13 +4665,13 @@
         <v>41830</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4686,13 @@
         <v>2152</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -4725,13 +4701,13 @@
         <v>1576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4740,13 +4716,13 @@
         <v>3728</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,7 +4743,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4776,13 +4752,13 @@
         <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4791,13 +4767,13 @@
         <v>697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4788,13 @@
         <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4833,7 +4809,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4842,13 +4818,13 @@
         <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,7 +4880,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4916,13 +4892,13 @@
         <v>51265</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -4931,13 +4907,13 @@
         <v>65659</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -4946,13 +4922,13 @@
         <v>116924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4943,13 @@
         <v>42671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4982,13 +4958,13 @@
         <v>29495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -4997,13 +4973,13 @@
         <v>72166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +4994,13 @@
         <v>2629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5033,13 +5009,13 @@
         <v>3319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -5048,13 +5024,13 @@
         <v>5948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5045,13 @@
         <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5090,7 +5066,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5099,13 +5075,13 @@
         <v>625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5102,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5141,7 +5117,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5156,7 +5132,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5188,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5224,13 +5200,13 @@
         <v>45023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -5239,13 +5215,13 @@
         <v>38054</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -5254,13 +5230,13 @@
         <v>83077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5251,13 @@
         <v>20392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -5290,13 +5266,13 @@
         <v>26523</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5305,13 +5281,13 @@
         <v>46915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5302,13 @@
         <v>2922</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5341,13 +5317,13 @@
         <v>1291</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5356,13 +5332,13 @@
         <v>4213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5353,13 @@
         <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5398,7 +5374,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5407,13 +5383,13 @@
         <v>580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5404,13 @@
         <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5443,13 +5419,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5458,13 +5434,13 @@
         <v>1263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,7 +5496,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5532,13 +5508,13 @@
         <v>51205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -5547,13 +5523,13 @@
         <v>49824</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -5562,13 +5538,13 @@
         <v>101029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5559,13 @@
         <v>35361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -5598,13 +5574,13 @@
         <v>39149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>348</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -5613,13 +5589,13 @@
         <v>74510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5610,13 @@
         <v>4504</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -5649,13 +5625,13 @@
         <v>768</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -5664,13 +5640,13 @@
         <v>5272</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5661,13 @@
         <v>1315</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5700,13 +5676,13 @@
         <v>1586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>361</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5715,13 +5691,13 @@
         <v>2901</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5712,13 @@
         <v>744</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5757,7 +5733,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5766,13 +5742,13 @@
         <v>744</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5816,13 @@
         <v>188478</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="H34" s="7">
         <v>272</v>
@@ -5855,13 +5831,13 @@
         <v>190178</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M34" s="7">
         <v>548</v>
@@ -5870,13 +5846,13 @@
         <v>378656</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5867,13 @@
         <v>127265</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H35" s="7">
         <v>170</v>
@@ -5906,13 +5882,13 @@
         <v>120953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M35" s="7">
         <v>353</v>
@@ -5921,13 +5897,13 @@
         <v>248217</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>383</v>
+        <v>56</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5918,13 @@
         <v>12207</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -5957,13 +5933,13 @@
         <v>7880</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -5972,13 +5948,13 @@
         <v>20087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5969,13 @@
         <v>2520</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>397</v>
+        <v>70</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6008,13 +5984,13 @@
         <v>2283</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -6044,7 +6020,7 @@
         <v>2039</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>404</v>
@@ -6059,13 +6035,13 @@
         <v>656</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6074,13 +6050,13 @@
         <v>2695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,7 +6112,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6157,7 +6133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE319E50-CD8B-4098-BF2B-6A9E06201B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378DE9DC-4BE5-4FD3-AB1E-092C7607C089}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6174,7 +6150,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6281,13 +6257,13 @@
         <v>8681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6296,13 +6272,13 @@
         <v>6881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6311,13 +6287,13 @@
         <v>15562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6308,13 @@
         <v>4824</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6347,13 +6323,13 @@
         <v>6029</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6362,10 +6338,10 @@
         <v>10854</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>425</v>
@@ -6383,13 +6359,13 @@
         <v>809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6398,13 +6374,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6413,13 +6389,13 @@
         <v>1824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6416,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6455,7 +6431,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6470,7 +6446,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,7 +6467,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6506,7 +6482,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6521,7 +6497,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,7 +6667,7 @@
         <v>1453</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
@@ -6706,13 +6682,13 @@
         <v>1840</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -6721,10 +6697,10 @@
         <v>3293</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>456</v>
@@ -6885,7 +6861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7002,7 +6978,7 @@
         <v>478</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>479</v>
@@ -7017,10 +6993,10 @@
         <v>480</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -7029,13 +7005,13 @@
         <v>12483</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7026,13 @@
         <v>717</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7065,13 +7041,13 @@
         <v>993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7080,13 +7056,13 @@
         <v>1710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>489</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7077,13 @@
         <v>717</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7116,13 +7092,13 @@
         <v>1421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -7131,13 +7107,13 @@
         <v>2139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,7 +7169,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7205,13 +7181,13 @@
         <v>48784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -7220,13 +7196,13 @@
         <v>50198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -7235,13 +7211,13 @@
         <v>98982</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7232,13 @@
         <v>25015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -7271,13 +7247,13 @@
         <v>18961</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -7286,13 +7262,13 @@
         <v>43977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7283,13 @@
         <v>3491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>514</v>
+        <v>100</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7322,13 +7298,13 @@
         <v>1845</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -7337,13 +7313,13 @@
         <v>5336</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,7 +7340,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7379,7 +7355,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7394,7 +7370,7 @@
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7385,13 @@
         <v>653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7424,13 +7400,13 @@
         <v>706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>517</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7439,13 +7415,13 @@
         <v>1359</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,7 +7477,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7513,13 +7489,13 @@
         <v>53708</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H28" s="7">
         <v>64</v>
@@ -7528,13 +7504,13 @@
         <v>49390</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M28" s="7">
         <v>135</v>
@@ -7543,13 +7519,13 @@
         <v>103098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>533</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7540,13 @@
         <v>46365</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -7579,13 +7555,13 @@
         <v>54896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -7594,13 +7570,13 @@
         <v>101261</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>542</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7591,13 @@
         <v>2070</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7630,13 +7606,13 @@
         <v>3306</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>545</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -7645,13 +7621,13 @@
         <v>5375</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>459</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>353</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,7 +7648,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7687,7 +7663,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>390</v>
+        <v>542</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7702,7 +7678,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,7 +7699,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7738,7 +7714,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>390</v>
+        <v>542</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7753,7 +7729,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7797,13 @@
         <v>201178</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H34" s="7">
         <v>273</v>
@@ -7836,13 +7812,13 @@
         <v>190417</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M34" s="7">
         <v>546</v>
@@ -7851,13 +7827,13 @@
         <v>391594</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7848,13 @@
         <v>146300</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H35" s="7">
         <v>208</v>
@@ -7887,13 +7863,13 @@
         <v>146720</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M35" s="7">
         <v>412</v>
@@ -7902,13 +7878,13 @@
         <v>293020</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7899,13 @@
         <v>11796</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>568</v>
+        <v>328</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -7938,13 +7914,13 @@
         <v>16515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>268</v>
+        <v>564</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M36" s="7">
         <v>41</v>
@@ -7953,13 +7929,13 @@
         <v>28311</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,13 +7950,13 @@
         <v>717</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7989,13 +7965,13 @@
         <v>993</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -8004,13 +7980,13 @@
         <v>1710</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>577</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,13 +8001,13 @@
         <v>1370</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8040,13 +8016,13 @@
         <v>2128</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -8055,13 +8031,13 @@
         <v>3498</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>581</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,7 +8093,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
